--- a/medicine/Psychotrope/BeerTender/BeerTender.xlsx
+++ b/medicine/Psychotrope/BeerTender/BeerTender.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">BeerTender est un système domestique de tireuse pression. Il combine un mini système de tireuse avec des fûts de 5 litres.
-Ce système développé en France en 2005 par un partenariat entre Heineken France et le Groupe SEB[1], permet en 2013 d'y capter 4 % du marché en GMS de la bière et à Heineken de détenir 90 % du marché de la bière en grand contenant[2]. En 2013, Heineken lance The Sub qui est la nouvelle génération de machine de bière pression à domicile. Elle est destinée à une consommation quotidienne alors que le BeerTender était plus tourné vers la consommation festive[3].
+Ce système développé en France en 2005 par un partenariat entre Heineken France et le Groupe SEB, permet en 2013 d'y capter 4 % du marché en GMS de la bière et à Heineken de détenir 90 % du marché de la bière en grand contenant. En 2013, Heineken lance The Sub qui est la nouvelle génération de machine de bière pression à domicile. Elle est destinée à une consommation quotidienne alors que le BeerTender était plus tourné vers la consommation festive.
 </t>
         </is>
       </c>
